--- a/Matrice_Des_Flux_Applicatifs/Matrice_des_flux_applicatifs.xlsx
+++ b/Matrice_Des_Flux_Applicatifs/Matrice_des_flux_applicatifs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgloo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35828684-5C87-4C34-BB05-CF4B8E6ABB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670FAF4-1BE2-407C-88D1-1AD2AA41BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31FE9CC5-96E3-427F-8BC4-8598E8F94681}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="79">
   <si>
     <t>Description</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Récupérer et modifie plusieurs données métiers</t>
   </si>
   <si>
-    <t>Demander une affectation pour un incident</t>
-  </si>
-  <si>
     <t>Envoyer des propositions d'affectations pour un incident</t>
   </si>
   <si>
@@ -230,12 +227,6 @@
     <t>Auth + TLS + JWT TOKEN</t>
   </si>
   <si>
-    <t xml:space="preserve"> API REST Backend QG to Core ENGINE JAVA (Rabbit MQ)</t>
-  </si>
-  <si>
-    <t>Core ENGINE JAVA (Rabbit MQ) to API REST Backend QG</t>
-  </si>
-  <si>
     <t>Rabbit MQ</t>
   </si>
   <si>
@@ -275,17 +266,20 @@
     <t>Envoie des informations des véhicules/incidents à l'API</t>
   </si>
   <si>
-    <t xml:space="preserve"> API REST Backend QG to Centrale RF (Rabbit MQ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assigner des vehicules a un incident </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> API REST Backend QG to Rabbit MQ</t>
+  </si>
+  <si>
+    <t>Core ENGINE JAVA to Rabbit MQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,14 +291,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -401,12 +387,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,9 +454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,36 +463,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57E10A6-9C82-419E-BACC-A7A945BB249A}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,25 +858,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
@@ -913,12 +931,12 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>29</v>
@@ -930,54 +948,54 @@
         <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="O3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" s="11" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="6"/>
+      <c r="G4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="10"/>
       <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
@@ -985,193 +1003,193 @@
         <v>22</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="14">
+        <v>5672</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="18" t="s">
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O8" s="14">
         <v>5672</v>
       </c>
-      <c r="P7" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="P8" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="18">
-        <v>5672</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>28</v>
@@ -1183,43 +1201,43 @@
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>60</v>
+      <c r="H9" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>9</v>
+      <c r="O9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
@@ -1231,288 +1249,288 @@
         <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="14">
+        <v>5672</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="M12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="11" t="s">
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="H13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="10">
+        <v>5432</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="P14" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="O15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="11">
-        <v>5672</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="11">
-        <v>5432</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="P15" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>40</v>
@@ -1521,48 +1539,48 @@
         <v>20</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="H16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="P16" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="11" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>41</v>
@@ -1571,48 +1589,48 @@
         <v>20</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="H17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="11" t="s">
+      <c r="O17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:16" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>42</v>
@@ -1621,48 +1639,48 @@
         <v>20</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="P18" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -1671,97 +1689,47 @@
         <v>20</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="11" t="s">
+      <c r="H19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="11" t="s">
+      <c r="M19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="O19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="P19" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1769,30 +1737,9 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{DC4E2094-A9D2-42B2-B0D5-FA265D7AF24E}"/>
-    <hyperlink ref="M10" r:id="rId2" xr:uid="{697D6068-8028-4C1C-854D-64740F9582BE}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{853A2353-C44C-47BC-9F98-FE565F678F0C}"/>
-    <hyperlink ref="M11" r:id="rId4" xr:uid="{21C4A9EC-0F02-4CFA-ACE5-FFE2CBFC426F}"/>
-    <hyperlink ref="H12" r:id="rId5" xr:uid="{BD3950CE-16D9-4962-8A04-DC67824BB4B5}"/>
-    <hyperlink ref="M13" r:id="rId6" xr:uid="{0A64E932-1451-4C48-815E-50FB0A2E2A3D}"/>
-    <hyperlink ref="M15" r:id="rId7" xr:uid="{E2AB8FFF-D944-4154-8C15-E250AAD9FAAE}"/>
-    <hyperlink ref="M16" r:id="rId8" xr:uid="{93468EB5-D794-4CA6-8F3D-CEF9C6D73C85}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{CB224AD9-8E6B-4A93-8443-B78A8E2B17C8}"/>
-    <hyperlink ref="M17" r:id="rId10" xr:uid="{B068E36B-1D00-4A0F-B490-0C24690B1025}"/>
-    <hyperlink ref="H17" r:id="rId11" xr:uid="{A1106E7E-E5BB-440F-A49E-34D6E62C339B}"/>
-    <hyperlink ref="H18" r:id="rId12" xr:uid="{2D2853A6-A1FA-4D29-839C-5E95F077137A}"/>
-    <hyperlink ref="M18" r:id="rId13" xr:uid="{FADAFDFB-4175-48D4-BDBB-CBBD9BC4BFAB}"/>
-    <hyperlink ref="H19" r:id="rId14" xr:uid="{A7AB055F-20BB-44D9-8B11-3F24177ACCCC}"/>
-    <hyperlink ref="M19" r:id="rId15" xr:uid="{CABBE359-D115-44A2-9439-E62CCCD51781}"/>
-    <hyperlink ref="M20" r:id="rId16" xr:uid="{0327CE4B-28F0-42E1-A0C0-04C132F1D311}"/>
-    <hyperlink ref="H20" r:id="rId17" xr:uid="{B960A030-7B95-4D2E-8DD8-BAD73293B098}"/>
-    <hyperlink ref="H14" r:id="rId18" xr:uid="{FFD354DA-D2BC-406F-98E9-18163FB81674}"/>
-    <hyperlink ref="H8" r:id="rId19" xr:uid="{978E23C5-B4B9-4164-BEF3-A8CF84FD9430}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K0000FF CNS - C3 - Internal</oddFooter>
   </headerFooter>
